--- a/webapi.xlsx
+++ b/webapi.xlsx
@@ -252,11 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//1商品发布成功,审核中...
-//-3商品发布失败,请添加商品图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
   String:GoodsName;
   String:GoodsAmount;
@@ -428,6 +423,10 @@
   </si>
   <si>
     <t>未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//1商品发布成功,审核中…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,29 +524,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -869,24 +868,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,12 +908,12 @@
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -937,12 +936,12 @@
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>74</v>
+      <c r="I3" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -965,11 +964,11 @@
         <v>28</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
@@ -992,23 +991,23 @@
         <v>32</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>72</v>
+      <c r="A7" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -1020,7 +1019,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>21</v>
@@ -1029,14 +1028,14 @@
         <v>17</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
@@ -1056,22 +1055,22 @@
         <v>40</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>16</v>
@@ -1080,140 +1079,140 @@
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="6" t="s">
+    <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="H11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="I11" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>76</v>
+      <c r="H13" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>76</v>
+      <c r="H14" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="72" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>76</v>
+      <c r="H15" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
